--- a/target/test-classes/testdata/Suite1.xlsx
+++ b/target/test-classes/testdata/Suite1.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
